--- a/TaskRisk_log.xlsx
+++ b/TaskRisk_log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA04801-9B89-4418-AF6A-E43567A711B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C92357-C0A8-42EC-A93D-90D697EC06A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -213,27 +213,12 @@
     <t>Getting an overview for what we have so far (will be extended in the future)</t>
   </si>
   <si>
-    <t>Display Application</t>
-  </si>
-  <si>
-    <t>Application properties</t>
-  </si>
-  <si>
-    <t>Dataflows</t>
-  </si>
-  <si>
     <t>Data objects</t>
   </si>
   <si>
     <t>Persistent storage</t>
   </si>
   <si>
-    <t>Visual overview of the applications and symbols can be move freely on the canvas</t>
-  </si>
-  <si>
-    <t>Name, version, description, COTZ, release date, shutdown date, properties window</t>
-  </si>
-  <si>
     <t>Applications can be connected with directed associations (arrowheads) representing dataflows. Dataflow refers to an data object.</t>
   </si>
   <si>
@@ -241,6 +226,69 @@
   </si>
   <si>
     <t>Application landscape has to be stored persistently e.g. as Database or JSON file</t>
+  </si>
+  <si>
+    <t>Responsible person for task informs team, if the team can't find a solution -&gt; inform supervisor</t>
+  </si>
+  <si>
+    <t>workload has to be divided on 5 people</t>
+  </si>
+  <si>
+    <t>The application of Gökhan Ünsal will be declined</t>
+  </si>
+  <si>
+    <t>Display Application - Canvas</t>
+  </si>
+  <si>
+    <t>Display Application - Symbols</t>
+  </si>
+  <si>
+    <t>Display Application - Movement</t>
+  </si>
+  <si>
+    <t>Karsten Rudolf, Edgar Meilinger</t>
+  </si>
+  <si>
+    <t>Karsten Rudolf, Ersan Ünsal</t>
+  </si>
+  <si>
+    <t>Visual Background Canvas</t>
+  </si>
+  <si>
+    <t>Symbols can be created in the application</t>
+  </si>
+  <si>
+    <t>Elements can be moved freely in the application</t>
+  </si>
+  <si>
+    <t>Dataflows - Application linking</t>
+  </si>
+  <si>
+    <t>Application properties - name, version, description</t>
+  </si>
+  <si>
+    <t>Jan Leonardi, Amine Amzil</t>
+  </si>
+  <si>
+    <t>Jan Leonardi, Gökhan Ünsal</t>
+  </si>
+  <si>
+    <t>Application properties - COTS, release date, shutdown date, properties window</t>
+  </si>
+  <si>
+    <t>Setting up timelines</t>
+  </si>
+  <si>
+    <t>Basic Informations</t>
+  </si>
+  <si>
+    <t>Gökhan Ünsal, Ersan Ünsal</t>
+  </si>
+  <si>
+    <t>Edgar Meilinger, Amine Amzil</t>
+  </si>
+  <si>
+    <t>Karsten Rudolf, Amine Amzil</t>
   </si>
 </sst>
 </file>
@@ -429,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,9 +487,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -472,9 +517,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -493,13 +535,364 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -531,343 +924,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -882,32 +938,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A3:I26" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Responsible" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support by" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Planned for Sprint #" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Planned Effort in h" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Realized in Sprint #" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Real Effort in h" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Responsible" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support by" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Planned for Sprint #" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Planned Effort in h" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Realized in Sprint #" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Real Effort in h" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:E22" totalsRowShown="0" headerRowDxfId="22" dataDxfId="11" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:E22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:E22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Risk" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Mitigation action" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Responsible" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Status" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Risk" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Mitigation action" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Responsible" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -924,7 +980,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="C1:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="C1:C5" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="C1:C5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Status"/>
@@ -1206,562 +1262,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
         <v>0.5</v>
       </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <v>0.5</v>
       </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <v>0.5</v>
       </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
         <v>0.5</v>
       </c>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>6</v>
       </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
         <v>0.5</v>
       </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>4</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>4</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>6</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="C19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17">
-        <v>5</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
-        <v>5</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>5</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17">
-        <v>4</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>4</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>15</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>16</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>17</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>18</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>19</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>21</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>22</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
-        <v>23</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1780,7 +1923,7 @@
           <x14:formula1>
             <xm:f>Param!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F26 H4:H26</xm:sqref>
+          <xm:sqref>H4:H29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1792,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,241 +1964,247 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskRisk_log.xlsx
+++ b/TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C92357-C0A8-42EC-A93D-90D697EC06A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{494976DC-0012-44B2-B7F9-8F41E5FBFDFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -219,12 +219,6 @@
     <t>Persistent storage</t>
   </si>
   <si>
-    <t>Applications can be connected with directed associations (arrowheads) representing dataflows. Dataflow refers to an data object.</t>
-  </si>
-  <si>
-    <t>With following properties: Name, description &amp; personal data ?</t>
-  </si>
-  <si>
     <t>Application landscape has to be stored persistently e.g. as Database or JSON file</t>
   </si>
   <si>
@@ -264,24 +258,9 @@
     <t>Dataflows - Application linking</t>
   </si>
   <si>
-    <t>Application properties - name, version, description</t>
-  </si>
-  <si>
-    <t>Jan Leonardi, Amine Amzil</t>
-  </si>
-  <si>
     <t>Jan Leonardi, Gökhan Ünsal</t>
   </si>
   <si>
-    <t>Application properties - COTS, release date, shutdown date, properties window</t>
-  </si>
-  <si>
-    <t>Setting up timelines</t>
-  </si>
-  <si>
-    <t>Basic Informations</t>
-  </si>
-  <si>
     <t>Gökhan Ünsal, Ersan Ünsal</t>
   </si>
   <si>
@@ -289,6 +268,42 @@
   </si>
   <si>
     <t>Karsten Rudolf, Amine Amzil</t>
+  </si>
+  <si>
+    <t>Display Application - Symbol Palette</t>
+  </si>
+  <si>
+    <t>Edgar Meilinger, Jan Leonardi</t>
+  </si>
+  <si>
+    <t>Display Application - CSS Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbols can be dragged and dropped from the palette to the Main </t>
+  </si>
+  <si>
+    <t>Application Design</t>
+  </si>
+  <si>
+    <t>Application properties - Application documentation</t>
+  </si>
+  <si>
+    <t>Basic documentation linked page for the customer</t>
+  </si>
+  <si>
+    <t>The properties can be shown using a properties window</t>
+  </si>
+  <si>
+    <t>Application properties - properties window (name, version, description, COTS, release date, shutdown date)</t>
+  </si>
+  <si>
+    <t>Jan Leonardi, Ersan Ünsal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications can be connected with directed associations (arrowheads) representing dataflows. </t>
+  </si>
+  <si>
+    <t>With following properties: Name, description &amp; personal data ? Dataflow refers to Data Object</t>
   </si>
 </sst>
 </file>
@@ -938,8 +953,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I31" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1262,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,16 +1605,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="21">
         <v>1</v>
@@ -1610,194 +1625,232 @@
       <c r="H13" s="13">
         <v>1</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="21">
         <v>1</v>
       </c>
       <c r="G14" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="13">
         <v>1</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="21">
         <v>1</v>
       </c>
       <c r="G15" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="13">
         <v>1</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" s="21">
         <v>1</v>
       </c>
       <c r="G16" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F17" s="21">
         <v>1</v>
       </c>
       <c r="G17" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" s="13">
         <v>1</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F18" s="21">
         <v>1</v>
       </c>
       <c r="G18" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H18" s="13">
         <v>1</v>
       </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>4</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>6</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
+      <c r="B21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="21">
+        <v>2</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
@@ -1806,11 +1859,21 @@
       <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21"/>
+      <c r="B22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14"/>
@@ -1897,14 +1960,40 @@
       <c r="A29" s="11">
         <v>26</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1923,7 +2012,7 @@
           <x14:formula1>
             <xm:f>Param!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H29</xm:sqref>
+          <xm:sqref>H4:H31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1936,7 +2025,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2165,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>52</v>
@@ -2088,10 +2177,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>52</v>

--- a/TaskRisk_log.xlsx
+++ b/TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{494976DC-0012-44B2-B7F9-8F41E5FBFDFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1EF7BE-B64F-4EF0-919A-CA4ADACE5A57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>#</t>
   </si>
@@ -304,6 +304,80 @@
   </si>
   <si>
     <t>With following properties: Name, description &amp; personal data ? Dataflow refers to Data Object</t>
+  </si>
+  <si>
+    <t>Rename program to application</t>
+  </si>
+  <si>
+    <t>Properties dialog windows is only visiable when clicked on (non selection = no properties window)</t>
+  </si>
+  <si>
+    <t>Application: traffic light signals for release / shutdown date                
+(blue = default, red = past shutdown date, amber = release date in future, green = in time between release &amp; shutdown date)</t>
+  </si>
+  <si>
+    <t>3 dropdowns values for Cots: cots, propietary, undefined</t>
+  </si>
+  <si>
+    <t>Fields of decription a bit longer, several lines visible</t>
+  </si>
+  <si>
+    <t>Graphical symbol for applications: applications need to be shown by a rectangle with two additional lines (as in the initial slide deck).</t>
+  </si>
+  <si>
+    <t>Report data objects: A report is required so that all data objects in the application landscape can be exported as an file (csv).</t>
+  </si>
+  <si>
+    <t>Report applications working with personal data: A report needs to be created that lists any application that works with personal data.</t>
+  </si>
+  <si>
+    <t>Data import: There is an Excel file with existing applications. 
+They need to be imported into the graphical editor, so that the additional applications are shown on the canvas.</t>
+  </si>
+  <si>
+    <t>Application will appear as default by the name "Application" and not as "Program"</t>
+  </si>
+  <si>
+    <t>Properties dialog will only be visible when you click on the Application</t>
+  </si>
+  <si>
+    <t>Link property windows shows only "name" and "color" in property window</t>
+  </si>
+  <si>
+    <t>Property window for links will only show "name" &amp; "color"</t>
+  </si>
+  <si>
+    <t>Implementing traffic light system for Applications the have a visual overview for the status</t>
+  </si>
+  <si>
+    <t>Changing free text value for COTS into a dropdown menu with 3 values(cots, propietary, undefined)</t>
+  </si>
+  <si>
+    <t>Implementing more visible lines in the fields of description</t>
+  </si>
+  <si>
+    <t>Organising spring 2</t>
+  </si>
+  <si>
+    <t>Research time for sprint 2</t>
+  </si>
+  <si>
+    <t>Geeting an overview what we need to research</t>
+  </si>
+  <si>
+    <t>Organising tasks for sprint 2</t>
+  </si>
+  <si>
+    <t>Changing the visual desgin of the symbol for the applications</t>
+  </si>
+  <si>
+    <t>Implementing an import option for excel files so you can see them on the canvas</t>
+  </si>
+  <si>
+    <t>Implenting an export option to save &amp; report all data objects in the application landscape as an .csv file</t>
+  </si>
+  <si>
+    <t>Implenting an export option to save &amp; report all data in the application related with personal data</t>
   </si>
 </sst>
 </file>
@@ -492,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,9 +607,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -556,13 +627,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -953,8 +1024,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I31" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I33" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1277,65 +1348,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
     <col min="7" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="25" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1355,7 +1426,7 @@
       <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -1384,7 +1455,7 @@
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -1413,7 +1484,7 @@
       <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>0</v>
       </c>
       <c r="G6" s="14">
@@ -1442,7 +1513,7 @@
       <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>0</v>
       </c>
       <c r="G7" s="14">
@@ -1471,7 +1542,7 @@
       <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>0</v>
       </c>
       <c r="G8" s="14">
@@ -1500,7 +1571,7 @@
       <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>0</v>
       </c>
       <c r="G9" s="14">
@@ -1529,7 +1600,7 @@
       <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>0</v>
       </c>
       <c r="G10" s="14">
@@ -1558,7 +1629,7 @@
       <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>0</v>
       </c>
       <c r="G11" s="14">
@@ -1587,7 +1658,7 @@
       <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>0</v>
       </c>
       <c r="G12" s="14">
@@ -1616,7 +1687,7 @@
       <c r="E13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>1</v>
       </c>
       <c r="G13" s="14">
@@ -1645,7 +1716,7 @@
       <c r="E14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>1</v>
       </c>
       <c r="G14" s="14">
@@ -1674,7 +1745,7 @@
       <c r="E15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>1</v>
       </c>
       <c r="G15" s="14">
@@ -1703,7 +1774,7 @@
       <c r="E16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="14">
@@ -1732,7 +1803,7 @@
       <c r="E17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>1</v>
       </c>
       <c r="G17" s="14">
@@ -1761,7 +1832,7 @@
       <c r="E18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="14">
@@ -1790,7 +1861,7 @@
       <c r="E19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>1</v>
       </c>
       <c r="G19" s="14">
@@ -1819,7 +1890,7 @@
       <c r="E20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>1</v>
       </c>
       <c r="G20" s="14">
@@ -1842,13 +1913,11 @@
       <c r="C21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>2</v>
       </c>
       <c r="G21" s="14"/>
@@ -1857,143 +1926,254 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="21">
+        <v>103</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="20">
         <v>2</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>2</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20">
+        <v>2</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>23</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="21"/>
+      <c r="F26" s="20">
+        <v>2</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="20">
+        <v>2</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="20">
+        <v>2</v>
+      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="20">
+        <v>2</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>27</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="20">
+        <v>2</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
+        <v>27</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="20">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="B32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="20">
+        <v>2</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="20">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>19</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="20">
+        <v>3</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2012,7 +2192,7 @@
           <x14:formula1>
             <xm:f>Param!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H31</xm:sqref>
+          <xm:sqref>H4:H34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/TaskRisk_log.xlsx
+++ b/TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1EF7BE-B64F-4EF0-919A-CA4ADACE5A57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB6101-1720-4DFA-8B12-80EE8912ACA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,17 +12,26 @@
     <sheet name="Risks" sheetId="2" r:id="rId2"/>
     <sheet name="Param" sheetId="6" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -262,12 +271,6 @@
   </si>
   <si>
     <t>Gökhan Ünsal, Ersan Ünsal</t>
-  </si>
-  <si>
-    <t>Edgar Meilinger, Amine Amzil</t>
-  </si>
-  <si>
-    <t>Karsten Rudolf, Amine Amzil</t>
   </si>
   <si>
     <t>Display Application - Symbol Palette</t>
@@ -356,18 +359,6 @@
     <t>Implementing more visible lines in the fields of description</t>
   </si>
   <si>
-    <t>Organising spring 2</t>
-  </si>
-  <si>
-    <t>Research time for sprint 2</t>
-  </si>
-  <si>
-    <t>Geeting an overview what we need to research</t>
-  </si>
-  <si>
-    <t>Organising tasks for sprint 2</t>
-  </si>
-  <si>
     <t>Changing the visual desgin of the symbol for the applications</t>
   </si>
   <si>
@@ -378,6 +369,12 @@
   </si>
   <si>
     <t>Implenting an export option to save &amp; report all data in the application related with personal data</t>
+  </si>
+  <si>
+    <t>Research: How to export files with GoJS</t>
+  </si>
+  <si>
+    <t>Being able to solve the export tasks</t>
   </si>
 </sst>
 </file>
@@ -631,9 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1348,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,16 +1758,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
@@ -1792,16 +1787,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="20">
         <v>1</v>
@@ -1821,10 +1816,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>31</v>
@@ -1850,10 +1845,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>28</v>
@@ -1882,7 +1877,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>36</v>
@@ -1911,31 +1906,39 @@
         <v>63</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="E21" s="13" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F21" s="20">
         <v>2</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="14">
+        <v>4</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="20">
         <v>2</v>
       </c>
@@ -1951,229 +1954,303 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="F23" s="20">
         <v>2</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F24" s="20">
         <v>2</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="14">
+        <v>2</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" s="20">
         <v>2</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14">
+        <v>5</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
       <c r="F26" s="20">
         <v>2</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="14">
+        <v>3</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F27" s="20">
         <v>2</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14">
+        <v>3</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>110</v>
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="F28" s="20">
         <v>2</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="14">
+        <v>4</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13" t="s">
-        <v>111</v>
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F29" s="20">
         <v>2</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14">
+        <v>3</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>26</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="F30" s="20">
         <v>2</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="16">
+        <v>4</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>27</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="F31" s="20">
         <v>2</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="G31" s="16">
+        <v>4</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>28</v>
-      </c>
-      <c r="B32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="20">
+        <v>3</v>
+      </c>
+      <c r="G32" s="14">
+        <v>8</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="20">
-        <v>2</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="F33" s="20">
-        <v>2</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="G33" s="14">
+        <v>6</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>19</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="20">
-        <v>3</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="14"/>
       <c r="H34" s="13"/>
       <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2192,7 +2269,7 @@
           <x14:formula1>
             <xm:f>Param!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H34</xm:sqref>
+          <xm:sqref>H4:H35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
